--- a/BackTest/2019-10-26 BackTest MTL.xlsx
+++ b/BackTest/2019-10-26 BackTest MTL.xlsx
@@ -15679,7 +15679,7 @@
         <v>0</v>
       </c>
       <c r="I437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr"/>
@@ -15714,7 +15714,7 @@
         <v>0</v>
       </c>
       <c r="I438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr"/>
@@ -15749,7 +15749,7 @@
         <v>0</v>
       </c>
       <c r="I439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr"/>
@@ -15784,7 +15784,7 @@
         <v>0</v>
       </c>
       <c r="I440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr"/>
@@ -15819,7 +15819,7 @@
         <v>0</v>
       </c>
       <c r="I441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr"/>
@@ -15854,7 +15854,7 @@
         <v>0</v>
       </c>
       <c r="I442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr"/>
@@ -15959,7 +15959,7 @@
         <v>0</v>
       </c>
       <c r="I445" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>0</v>
       </c>
       <c r="I446" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr"/>
@@ -16029,7 +16029,7 @@
         <v>0</v>
       </c>
       <c r="I447" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr"/>
@@ -16064,7 +16064,7 @@
         <v>0</v>
       </c>
       <c r="I448" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr"/>
@@ -16099,7 +16099,7 @@
         <v>0</v>
       </c>
       <c r="I449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr"/>
@@ -21101,14 +21101,20 @@
         <v>352</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I592" t="n">
         <v>0</v>
       </c>
-      <c r="J592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>351</v>
+      </c>
       <c r="K592" t="inlineStr"/>
-      <c r="L592" t="inlineStr"/>
+      <c r="L592" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M592" t="n">
         <v>1</v>
       </c>
@@ -21144,10 +21150,12 @@
       <c r="J593" t="n">
         <v>350</v>
       </c>
-      <c r="K593" t="n">
-        <v>350</v>
-      </c>
-      <c r="L593" t="inlineStr"/>
+      <c r="K593" t="inlineStr"/>
+      <c r="L593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M593" t="n">
         <v>1</v>
       </c>
@@ -21183,12 +21191,10 @@
       <c r="J594" t="n">
         <v>350</v>
       </c>
-      <c r="K594" t="n">
-        <v>350</v>
-      </c>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M594" t="n">
@@ -21226,12 +21232,10 @@
       <c r="J595" t="n">
         <v>350</v>
       </c>
-      <c r="K595" t="n">
-        <v>350</v>
-      </c>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M595" t="n">
@@ -21267,11 +21271,9 @@
         <v>0</v>
       </c>
       <c r="J596" t="n">
-        <v>348</v>
-      </c>
-      <c r="K596" t="n">
-        <v>350</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21312,9 +21314,7 @@
       <c r="J597" t="n">
         <v>348</v>
       </c>
-      <c r="K597" t="n">
-        <v>350</v>
-      </c>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21355,9 +21355,7 @@
       <c r="J598" t="n">
         <v>348</v>
       </c>
-      <c r="K598" t="n">
-        <v>350</v>
-      </c>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21398,9 +21396,7 @@
       <c r="J599" t="n">
         <v>348</v>
       </c>
-      <c r="K599" t="n">
-        <v>350</v>
-      </c>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21439,11 +21435,9 @@
         <v>0</v>
       </c>
       <c r="J600" t="n">
-        <v>352</v>
-      </c>
-      <c r="K600" t="n">
-        <v>350</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21482,11 +21476,9 @@
         <v>0</v>
       </c>
       <c r="J601" t="n">
-        <v>351</v>
-      </c>
-      <c r="K601" t="n">
-        <v>350</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21527,9 +21519,7 @@
       <c r="J602" t="n">
         <v>351</v>
       </c>
-      <c r="K602" t="n">
-        <v>350</v>
-      </c>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21568,11 +21558,9 @@
         <v>0</v>
       </c>
       <c r="J603" t="n">
-        <v>351</v>
-      </c>
-      <c r="K603" t="n">
-        <v>350</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21605,17 +21593,13 @@
         <v>350.2</v>
       </c>
       <c r="H604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I604" t="n">
         <v>0</v>
       </c>
-      <c r="J604" t="n">
-        <v>349</v>
-      </c>
-      <c r="K604" t="n">
-        <v>350</v>
-      </c>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21648,17 +21632,13 @@
         <v>350.2</v>
       </c>
       <c r="H605" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I605" t="n">
         <v>0</v>
       </c>
-      <c r="J605" t="n">
-        <v>351</v>
-      </c>
-      <c r="K605" t="n">
-        <v>350</v>
-      </c>
+      <c r="J605" t="inlineStr"/>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21691,17 +21671,13 @@
         <v>350.8</v>
       </c>
       <c r="H606" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I606" t="n">
         <v>0</v>
       </c>
-      <c r="J606" t="n">
-        <v>354</v>
-      </c>
-      <c r="K606" t="n">
-        <v>350</v>
-      </c>
+      <c r="J606" t="inlineStr"/>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21734,17 +21710,13 @@
         <v>351</v>
       </c>
       <c r="H607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I607" t="n">
         <v>0</v>
       </c>
-      <c r="J607" t="n">
-        <v>350</v>
-      </c>
-      <c r="K607" t="n">
-        <v>350</v>
-      </c>
+      <c r="J607" t="inlineStr"/>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21777,17 +21749,13 @@
         <v>351.4</v>
       </c>
       <c r="H608" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I608" t="n">
         <v>0</v>
       </c>
-      <c r="J608" t="n">
-        <v>352</v>
-      </c>
-      <c r="K608" t="n">
-        <v>350</v>
-      </c>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21820,17 +21788,13 @@
         <v>351.8</v>
       </c>
       <c r="H609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I609" t="n">
         <v>0</v>
       </c>
-      <c r="J609" t="n">
-        <v>351</v>
-      </c>
-      <c r="K609" t="n">
-        <v>350</v>
-      </c>
+      <c r="J609" t="inlineStr"/>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21863,17 +21827,13 @@
         <v>352</v>
       </c>
       <c r="H610" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I610" t="n">
         <v>0</v>
       </c>
-      <c r="J610" t="n">
-        <v>353</v>
-      </c>
-      <c r="K610" t="n">
-        <v>350</v>
-      </c>
+      <c r="J610" t="inlineStr"/>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21906,17 +21866,13 @@
         <v>351.8</v>
       </c>
       <c r="H611" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I611" t="n">
         <v>0</v>
       </c>
-      <c r="J611" t="n">
-        <v>353</v>
-      </c>
-      <c r="K611" t="n">
-        <v>350</v>
-      </c>
+      <c r="J611" t="inlineStr"/>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21949,17 +21905,13 @@
         <v>352.6</v>
       </c>
       <c r="H612" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I612" t="n">
         <v>0</v>
       </c>
-      <c r="J612" t="n">
-        <v>353</v>
-      </c>
-      <c r="K612" t="n">
-        <v>350</v>
-      </c>
+      <c r="J612" t="inlineStr"/>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21992,17 +21944,13 @@
         <v>353</v>
       </c>
       <c r="H613" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I613" t="n">
         <v>0</v>
       </c>
-      <c r="J613" t="n">
-        <v>355</v>
-      </c>
-      <c r="K613" t="n">
-        <v>350</v>
-      </c>
+      <c r="J613" t="inlineStr"/>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22035,17 +21983,13 @@
         <v>354</v>
       </c>
       <c r="H614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I614" t="n">
         <v>0</v>
       </c>
-      <c r="J614" t="n">
-        <v>355</v>
-      </c>
-      <c r="K614" t="n">
-        <v>350</v>
-      </c>
+      <c r="J614" t="inlineStr"/>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22078,17 +22022,13 @@
         <v>355</v>
       </c>
       <c r="H615" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I615" t="n">
         <v>0</v>
       </c>
-      <c r="J615" t="n">
-        <v>356</v>
-      </c>
-      <c r="K615" t="n">
-        <v>350</v>
-      </c>
+      <c r="J615" t="inlineStr"/>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22121,17 +22061,13 @@
         <v>355.2</v>
       </c>
       <c r="H616" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I616" t="n">
         <v>0</v>
       </c>
-      <c r="J616" t="n">
-        <v>354</v>
-      </c>
-      <c r="K616" t="n">
-        <v>350</v>
-      </c>
+      <c r="J616" t="inlineStr"/>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22164,17 +22100,13 @@
         <v>355.6</v>
       </c>
       <c r="H617" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I617" t="n">
         <v>0</v>
       </c>
-      <c r="J617" t="n">
-        <v>355</v>
-      </c>
-      <c r="K617" t="n">
-        <v>350</v>
-      </c>
+      <c r="J617" t="inlineStr"/>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22207,17 +22139,13 @@
         <v>355.4</v>
       </c>
       <c r="H618" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I618" t="n">
         <v>0</v>
       </c>
-      <c r="J618" t="n">
-        <v>354</v>
-      </c>
-      <c r="K618" t="n">
-        <v>350</v>
-      </c>
+      <c r="J618" t="inlineStr"/>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22250,17 +22178,13 @@
         <v>355.2</v>
       </c>
       <c r="H619" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I619" t="n">
         <v>0</v>
       </c>
-      <c r="J619" t="n">
-        <v>355</v>
-      </c>
-      <c r="K619" t="n">
-        <v>350</v>
-      </c>
+      <c r="J619" t="inlineStr"/>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22293,17 +22217,13 @@
         <v>354.8</v>
       </c>
       <c r="H620" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I620" t="n">
         <v>0</v>
       </c>
-      <c r="J620" t="n">
-        <v>356</v>
-      </c>
-      <c r="K620" t="n">
-        <v>350</v>
-      </c>
+      <c r="J620" t="inlineStr"/>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22336,17 +22256,13 @@
         <v>355</v>
       </c>
       <c r="H621" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I621" t="n">
         <v>0</v>
       </c>
-      <c r="J621" t="n">
-        <v>355</v>
-      </c>
-      <c r="K621" t="n">
-        <v>350</v>
-      </c>
+      <c r="J621" t="inlineStr"/>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22379,17 +22295,13 @@
         <v>355</v>
       </c>
       <c r="H622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I622" t="n">
         <v>0</v>
       </c>
-      <c r="J622" t="n">
-        <v>355</v>
-      </c>
-      <c r="K622" t="n">
-        <v>350</v>
-      </c>
+      <c r="J622" t="inlineStr"/>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22422,17 +22334,13 @@
         <v>355.2</v>
       </c>
       <c r="H623" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I623" t="n">
         <v>0</v>
       </c>
-      <c r="J623" t="n">
-        <v>355</v>
-      </c>
-      <c r="K623" t="n">
-        <v>350</v>
-      </c>
+      <c r="J623" t="inlineStr"/>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22465,17 +22373,13 @@
         <v>355.4</v>
       </c>
       <c r="H624" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I624" t="n">
         <v>0</v>
       </c>
-      <c r="J624" t="n">
-        <v>355</v>
-      </c>
-      <c r="K624" t="n">
-        <v>350</v>
-      </c>
+      <c r="J624" t="inlineStr"/>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22508,17 +22412,13 @@
         <v>355.2</v>
       </c>
       <c r="H625" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I625" t="n">
         <v>0</v>
       </c>
-      <c r="J625" t="n">
-        <v>355</v>
-      </c>
-      <c r="K625" t="n">
-        <v>350</v>
-      </c>
+      <c r="J625" t="inlineStr"/>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22551,17 +22451,13 @@
         <v>355.4</v>
       </c>
       <c r="H626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I626" t="n">
         <v>0</v>
       </c>
-      <c r="J626" t="n">
-        <v>355</v>
-      </c>
-      <c r="K626" t="n">
-        <v>350</v>
-      </c>
+      <c r="J626" t="inlineStr"/>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22594,17 +22490,13 @@
         <v>355.2</v>
       </c>
       <c r="H627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I627" t="n">
         <v>0</v>
       </c>
-      <c r="J627" t="n">
-        <v>354</v>
-      </c>
-      <c r="K627" t="n">
-        <v>350</v>
-      </c>
+      <c r="J627" t="inlineStr"/>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22643,9 +22535,7 @@
         <v>0</v>
       </c>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="n">
-        <v>350</v>
-      </c>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22678,17 +22568,13 @@
         <v>354.8</v>
       </c>
       <c r="H629" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I629" t="n">
         <v>0</v>
       </c>
-      <c r="J629" t="n">
-        <v>354</v>
-      </c>
-      <c r="K629" t="n">
-        <v>350</v>
-      </c>
+      <c r="J629" t="inlineStr"/>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22721,17 +22607,13 @@
         <v>354.4</v>
       </c>
       <c r="H630" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I630" t="n">
         <v>0</v>
       </c>
-      <c r="J630" t="n">
-        <v>354</v>
-      </c>
-      <c r="K630" t="n">
-        <v>350</v>
-      </c>
+      <c r="J630" t="inlineStr"/>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22764,17 +22646,13 @@
         <v>353.8</v>
       </c>
       <c r="H631" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I631" t="n">
         <v>0</v>
       </c>
-      <c r="J631" t="n">
-        <v>353</v>
-      </c>
-      <c r="K631" t="n">
-        <v>350</v>
-      </c>
+      <c r="J631" t="inlineStr"/>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22807,17 +22685,13 @@
         <v>353.8</v>
       </c>
       <c r="H632" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I632" t="n">
         <v>0</v>
       </c>
-      <c r="J632" t="n">
-        <v>354</v>
-      </c>
-      <c r="K632" t="n">
-        <v>350</v>
-      </c>
+      <c r="J632" t="inlineStr"/>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22850,17 +22724,13 @@
         <v>353.6</v>
       </c>
       <c r="H633" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I633" t="n">
         <v>0</v>
       </c>
-      <c r="J633" t="n">
-        <v>354</v>
-      </c>
-      <c r="K633" t="n">
-        <v>350</v>
-      </c>
+      <c r="J633" t="inlineStr"/>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22893,17 +22763,13 @@
         <v>353.6</v>
       </c>
       <c r="H634" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I634" t="n">
         <v>0</v>
       </c>
-      <c r="J634" t="n">
-        <v>354</v>
-      </c>
-      <c r="K634" t="n">
-        <v>350</v>
-      </c>
+      <c r="J634" t="inlineStr"/>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22936,17 +22802,13 @@
         <v>353.8</v>
       </c>
       <c r="H635" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I635" t="n">
         <v>0</v>
       </c>
-      <c r="J635" t="n">
-        <v>352</v>
-      </c>
-      <c r="K635" t="n">
-        <v>350</v>
-      </c>
+      <c r="J635" t="inlineStr"/>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22979,17 +22841,13 @@
         <v>354</v>
       </c>
       <c r="H636" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I636" t="n">
         <v>0</v>
       </c>
-      <c r="J636" t="n">
-        <v>354</v>
-      </c>
-      <c r="K636" t="n">
-        <v>350</v>
-      </c>
+      <c r="J636" t="inlineStr"/>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23022,17 +22880,13 @@
         <v>354</v>
       </c>
       <c r="H637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I637" t="n">
         <v>0</v>
       </c>
-      <c r="J637" t="n">
-        <v>354</v>
-      </c>
-      <c r="K637" t="n">
-        <v>350</v>
-      </c>
+      <c r="J637" t="inlineStr"/>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23065,17 +22919,13 @@
         <v>354</v>
       </c>
       <c r="H638" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I638" t="n">
         <v>0</v>
       </c>
-      <c r="J638" t="n">
-        <v>354</v>
-      </c>
-      <c r="K638" t="n">
-        <v>350</v>
-      </c>
+      <c r="J638" t="inlineStr"/>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23108,17 +22958,13 @@
         <v>354.4</v>
       </c>
       <c r="H639" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I639" t="n">
         <v>0</v>
       </c>
-      <c r="J639" t="n">
-        <v>355</v>
-      </c>
-      <c r="K639" t="n">
-        <v>350</v>
-      </c>
+      <c r="J639" t="inlineStr"/>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23151,17 +22997,13 @@
         <v>354.8</v>
       </c>
       <c r="H640" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I640" t="n">
         <v>0</v>
       </c>
-      <c r="J640" t="n">
-        <v>356</v>
-      </c>
-      <c r="K640" t="n">
-        <v>350</v>
-      </c>
+      <c r="J640" t="inlineStr"/>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23194,17 +23036,13 @@
         <v>355.6</v>
       </c>
       <c r="H641" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I641" t="n">
         <v>0</v>
       </c>
-      <c r="J641" t="n">
-        <v>356</v>
-      </c>
-      <c r="K641" t="n">
-        <v>350</v>
-      </c>
+      <c r="J641" t="inlineStr"/>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23237,17 +23075,13 @@
         <v>356.2</v>
       </c>
       <c r="H642" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I642" t="n">
         <v>0</v>
       </c>
-      <c r="J642" t="n">
-        <v>356</v>
-      </c>
-      <c r="K642" t="n">
-        <v>350</v>
-      </c>
+      <c r="J642" t="inlineStr"/>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23286,9 +23120,7 @@
         <v>0</v>
       </c>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="n">
-        <v>350</v>
-      </c>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23327,9 +23159,7 @@
         <v>0</v>
       </c>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="n">
-        <v>350</v>
-      </c>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23368,9 +23198,7 @@
         <v>0</v>
       </c>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="n">
-        <v>350</v>
-      </c>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23409,9 +23237,7 @@
         <v>0</v>
       </c>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="n">
-        <v>350</v>
-      </c>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23450,9 +23276,7 @@
         <v>0</v>
       </c>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="n">
-        <v>350</v>
-      </c>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2019-10-26 BackTest MTL.xlsx
+++ b/BackTest/2019-10-26 BackTest MTL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>37574.95681911999</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>33897.74241911999</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>4819.874119119995</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>52152.34313494</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>43155.98253494</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>43158.48253494</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>42497.90253494</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>39876.75333494</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>29312.42043494</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>30481.42043494</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>42632.94883493999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>59458.94883493999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>55177.09706125</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>64219.03326124999</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>64219.03326124999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>49982.17796125</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>35963.09496125</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>37392.61906125</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>36592.44396125</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>37144.38286125</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>37144.38286125</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>37144.38286125</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>27884.46506125</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>29783.39045887</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>31401.85825887</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>47364.60975887</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>47364.60975887</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>44991.06515887</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>44703.09485887</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>36370.40805887</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>35853.53205887001</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>29122.07915887</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>29122.07915887</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>29122.07915887</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>26534.05245887001</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>26538.48855887001</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>26538.48855887001</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>26538.48855887001</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>26538.48855887001</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>36815.50295887001</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>36314.50295887001</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>36314.50295887001</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>39147.58125887001</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>39147.58125887001</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>39147.58125887001</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>37292.43005887001</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>12859.59065886999</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>17254.06425887</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>23273.74445886999</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>17233.08205886999</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>17993.08875887</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>17995.27055886999</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>17993.08875887</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>19976.00445887</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>20277.00445887</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>20274.45855887</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>20122.90255887</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>20124.02255886999</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>24703.84295886999</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>45553.56165886999</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>63135.30035886999</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>65006.09892552999</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>71423.50912552999</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>32555.07312552998</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>31675.55012552998</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>31675.55012552998</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>31950.55012552998</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>31950.55012552998</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>32819.01242552998</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>33757.84032552998</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>29888.25282552998</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>29889.43282552998</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>29843.62282552998</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>27127.37272552998</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>27797.38082552998</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>28143.33082552998</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>28144.45082552998</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>26760.45082552998</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>26761.63082552998</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>26546.63082552998</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>26547.81082552998</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>26530.08242552998</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>25244.00112552998</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>25094.00112552998</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>25094.00112552998</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>25094.00112552998</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>25094.00112552998</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>25232.24702552998</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>34848.46322552998</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>31360.33022552998</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -21670,7 +21670,7 @@
         <v>-118412.58688993</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I645" t="n">
         <v>354</v>
@@ -21707,9 +21707,11 @@
         <v>-118412.58688993</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
-      </c>
-      <c r="I646" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I646" t="n">
+        <v>354</v>
+      </c>
       <c r="J646" t="n">
         <v>354</v>
       </c>
@@ -21785,9 +21787,11 @@
         <v>-118412.58688993</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
-      </c>
-      <c r="I648" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I648" t="n">
+        <v>354</v>
+      </c>
       <c r="J648" t="n">
         <v>354</v>
       </c>
@@ -21824,9 +21828,11 @@
         <v>-125626.37208993</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
-      </c>
-      <c r="I649" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I649" t="n">
+        <v>354</v>
+      </c>
       <c r="J649" t="n">
         <v>354</v>
       </c>
@@ -21863,9 +21869,11 @@
         <v>-125626.37208993</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
-      </c>
-      <c r="I650" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I650" t="n">
+        <v>351</v>
+      </c>
       <c r="J650" t="n">
         <v>354</v>
       </c>
@@ -21902,7 +21910,7 @@
         <v>-128645.01488993</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I651" t="n">
         <v>351</v>
@@ -21943,7 +21951,7 @@
         <v>-128645.01488993</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I652" t="n">
         <v>350</v>
@@ -21984,7 +21992,7 @@
         <v>-128645.01488993</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I653" t="n">
         <v>350</v>
@@ -22025,7 +22033,7 @@
         <v>-136059.11668993</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I654" t="n">
         <v>350</v>
@@ -22066,7 +22074,7 @@
         <v>-135018.08288993</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I655" t="n">
         <v>347</v>
@@ -22107,7 +22115,7 @@
         <v>-135018.08288993</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I656" t="n">
         <v>348</v>
@@ -22148,7 +22156,7 @@
         <v>-135018.08288993</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I657" t="n">
         <v>348</v>
@@ -22189,7 +22197,7 @@
         <v>-127496.58288993</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I658" t="n">
         <v>348</v>
@@ -22230,7 +22238,7 @@
         <v>-127880.87548993</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I659" t="n">
         <v>354</v>
@@ -22271,7 +22279,7 @@
         <v>-128299.56378993</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I660" t="n">
         <v>352</v>
@@ -22312,7 +22320,7 @@
         <v>-134595.03128993</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I661" t="n">
         <v>351</v>
@@ -22353,7 +22361,7 @@
         <v>-131653.03128993</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I662" t="n">
         <v>348</v>
@@ -22394,7 +22402,7 @@
         <v>-140320.42078993</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I663" t="n">
         <v>351</v>
@@ -22435,7 +22443,7 @@
         <v>-131256.17698993</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I664" t="n">
         <v>349</v>
@@ -22476,7 +22484,7 @@
         <v>-131044.03858993</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I665" t="n">
         <v>352</v>
@@ -22517,7 +22525,7 @@
         <v>-135262.57048993</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I666" t="n">
         <v>354</v>
@@ -22558,7 +22566,7 @@
         <v>-134321.73488993</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I667" t="n">
         <v>349</v>
@@ -22599,9 +22607,11 @@
         <v>-134329.73488993</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
-      </c>
-      <c r="I668" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I668" t="n">
+        <v>353</v>
+      </c>
       <c r="J668" t="n">
         <v>354</v>
       </c>
@@ -22638,7 +22648,7 @@
         <v>-126130.03578993</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I669" t="n">
         <v>351</v>
@@ -22679,9 +22689,11 @@
         <v>-126130.03578993</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
-      </c>
-      <c r="I670" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I670" t="n">
+        <v>353</v>
+      </c>
       <c r="J670" t="n">
         <v>354</v>
       </c>
@@ -22718,9 +22730,11 @@
         <v>-126130.03578993</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
-      </c>
-      <c r="I671" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I671" t="n">
+        <v>353</v>
+      </c>
       <c r="J671" t="n">
         <v>354</v>
       </c>
@@ -22757,9 +22771,11 @@
         <v>-124701.23388993</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
-      </c>
-      <c r="I672" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I672" t="n">
+        <v>353</v>
+      </c>
       <c r="J672" t="n">
         <v>354</v>
       </c>
@@ -22796,9 +22812,11 @@
         <v>-118180.58338993</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
-      </c>
-      <c r="I673" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I673" t="n">
+        <v>355</v>
+      </c>
       <c r="J673" t="n">
         <v>354</v>
       </c>
@@ -23771,11 +23789,9 @@
         <v>-108771.04567094</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
-      </c>
-      <c r="I698" t="n">
-        <v>354</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I698" t="inlineStr"/>
       <c r="J698" t="n">
         <v>354</v>
       </c>
@@ -23812,11 +23828,9 @@
         <v>-108771.04567094</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
-      </c>
-      <c r="I699" t="n">
-        <v>356</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I699" t="inlineStr"/>
       <c r="J699" t="n">
         <v>354</v>
       </c>
@@ -24494,6 +24508,6 @@
       <c r="M716" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest MTL.xlsx
+++ b/BackTest/2019-10-26 BackTest MTL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>37574.95681911999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>41689.57261911999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>33634.41341911999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>33680.85171911999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>29747.39631911999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>29748.63231912</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>29153.86501912</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>14007.01111912</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-15534.72038088001</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-15534.72038088001</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-2261.090480880005</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-2261.090480880005</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-2261.090480880005</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-2262.090480880005</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-10571.26618088</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-10570.01618088</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>4819.874119119995</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>42497.90253494</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>39876.75333494</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>29312.42043494</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>30481.42043494</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>42632.94883493999</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>59458.94883493999</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>55177.09706125</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>64219.03326124999</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>64219.03326124999</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>49982.17796125</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>35963.09496125</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>37392.61906125</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>36592.44396125</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>37144.38286125</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>37144.38286125</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>37144.38286125</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>27884.46506125</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>29783.39045887</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>31401.85825887</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>47364.60975887</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>47364.60975887</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>44991.06515887</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>44703.09485887</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>36370.40805887</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>35853.53205887001</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>29122.07915887</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>29122.07915887</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>26538.48855887001</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>26538.48855887001</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>26538.48855887001</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>26538.48855887001</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>36815.50295887001</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>36314.50295887001</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>36314.50295887001</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>39147.58125887001</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>39147.58125887001</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>39147.58125887001</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>37292.43005887001</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>12859.59065886999</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>17254.06425887</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>23273.74445886999</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>17233.08205886999</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>17993.08875887</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>17995.27055886999</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>17993.08875887</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>19976.00445887</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>20277.00445887</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>20274.45855887</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>20122.90255887</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>20124.02255886999</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>24703.84295886999</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>45553.56165886999</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>63135.30035886999</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>71423.50912552999</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>33757.84032552998</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>29888.25282552998</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>29889.43282552998</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>29843.62282552998</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>27127.37272552998</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>27797.38082552998</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>28143.33082552998</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>28144.45082552998</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>26760.45082552998</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>26761.63082552998</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>26546.63082552998</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>26547.81082552998</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>26530.08242552998</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>25244.00112552998</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>25094.00112552998</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>25094.00112552998</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>25094.00112552998</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>25094.00112552998</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>25232.24702552998</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>31360.33022552998</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>31360.33022552998</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>31360.33022552998</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>34508.22077659997</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>32024.81987659997</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>32024.81987659997</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>31150.10837659997</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>31932.79307659997</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>17513.94827659997</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>18423.20037659997</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>18423.20037659997</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>18166.70927659997</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>28105.71152523997</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>28105.71152523997</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>27314.60302523998</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>15421.08062523998</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-34504.91534093002</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-34504.91534093002</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-34504.91534093002</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-19389.10606832002</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-20989.14556832002</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-24130.62516832002</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-22482.22196832002</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-23482.22196832002</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-22480.63316832002</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-22529.19686832001</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-22528.08996832002</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-22528.08996832002</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-22526.16576832001</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-22577.12976832001</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-13687.12976832001</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-13012.94726832001</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-13772.43016832001</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-13772.43016832001</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-14336.37906832001</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-14335.02076832001</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>-21967.25656832002</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>-21958.37246832002</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-21929.52216832002</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>-22148.87566832002</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>-22307.58466832002</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-22307.58466832002</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-25740.85006832002</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-25740.85006832002</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>-25073.72556832002</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-30287.56916832002</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-30161.56916832002</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-33937.00326832002</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>-29518.88726832002</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>-30228.88726832002</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>-33672.70706832001</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-33517.70706832001</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-36428.37376832002</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>-39405.79346832001</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -21670,14 +21670,10 @@
         <v>-118412.58688993</v>
       </c>
       <c r="H645" t="n">
-        <v>1</v>
-      </c>
-      <c r="I645" t="n">
-        <v>354</v>
-      </c>
-      <c r="J645" t="n">
-        <v>354</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I645" t="inlineStr"/>
+      <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
@@ -21707,19 +21703,11 @@
         <v>-118412.58688993</v>
       </c>
       <c r="H646" t="n">
-        <v>1</v>
-      </c>
-      <c r="I646" t="n">
-        <v>354</v>
-      </c>
-      <c r="J646" t="n">
-        <v>354</v>
-      </c>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I646" t="inlineStr"/>
+      <c r="J646" t="inlineStr"/>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -21751,178 +21739,146 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="n">
+      <c r="J647" t="inlineStr"/>
+      <c r="K647" t="inlineStr"/>
+      <c r="L647" t="n">
+        <v>1</v>
+      </c>
+      <c r="M647" t="inlineStr"/>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="n">
+        <v>646</v>
+      </c>
+      <c r="B648" t="n">
         <v>354</v>
       </c>
-      <c r="K647" t="inlineStr">
+      <c r="C648" t="n">
+        <v>354</v>
+      </c>
+      <c r="D648" t="n">
+        <v>354</v>
+      </c>
+      <c r="E648" t="n">
+        <v>354</v>
+      </c>
+      <c r="F648" t="n">
+        <v>300</v>
+      </c>
+      <c r="G648" t="n">
+        <v>-118412.58688993</v>
+      </c>
+      <c r="H648" t="n">
+        <v>0</v>
+      </c>
+      <c r="I648" t="inlineStr"/>
+      <c r="J648" t="inlineStr"/>
+      <c r="K648" t="inlineStr"/>
+      <c r="L648" t="n">
+        <v>1</v>
+      </c>
+      <c r="M648" t="inlineStr"/>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="n">
+        <v>647</v>
+      </c>
+      <c r="B649" t="n">
+        <v>354</v>
+      </c>
+      <c r="C649" t="n">
+        <v>351</v>
+      </c>
+      <c r="D649" t="n">
+        <v>354</v>
+      </c>
+      <c r="E649" t="n">
+        <v>351</v>
+      </c>
+      <c r="F649" t="n">
+        <v>7213.7852</v>
+      </c>
+      <c r="G649" t="n">
+        <v>-125626.37208993</v>
+      </c>
+      <c r="H649" t="n">
+        <v>0</v>
+      </c>
+      <c r="I649" t="inlineStr"/>
+      <c r="J649" t="inlineStr"/>
+      <c r="K649" t="inlineStr"/>
+      <c r="L649" t="n">
+        <v>1</v>
+      </c>
+      <c r="M649" t="inlineStr"/>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="n">
+        <v>648</v>
+      </c>
+      <c r="B650" t="n">
+        <v>351</v>
+      </c>
+      <c r="C650" t="n">
+        <v>351</v>
+      </c>
+      <c r="D650" t="n">
+        <v>351</v>
+      </c>
+      <c r="E650" t="n">
+        <v>351</v>
+      </c>
+      <c r="F650" t="n">
+        <v>4.6391</v>
+      </c>
+      <c r="G650" t="n">
+        <v>-125626.37208993</v>
+      </c>
+      <c r="H650" t="n">
+        <v>0</v>
+      </c>
+      <c r="I650" t="inlineStr"/>
+      <c r="J650" t="inlineStr"/>
+      <c r="K650" t="inlineStr"/>
+      <c r="L650" t="n">
+        <v>1</v>
+      </c>
+      <c r="M650" t="inlineStr"/>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="n">
+        <v>649</v>
+      </c>
+      <c r="B651" t="n">
+        <v>351</v>
+      </c>
+      <c r="C651" t="n">
+        <v>350</v>
+      </c>
+      <c r="D651" t="n">
+        <v>351</v>
+      </c>
+      <c r="E651" t="n">
+        <v>350</v>
+      </c>
+      <c r="F651" t="n">
+        <v>3018.6428</v>
+      </c>
+      <c r="G651" t="n">
+        <v>-128645.01488993</v>
+      </c>
+      <c r="H651" t="n">
+        <v>1</v>
+      </c>
+      <c r="I651" t="n">
+        <v>351</v>
+      </c>
+      <c r="J651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L647" t="n">
-        <v>1</v>
-      </c>
-      <c r="M647" t="inlineStr"/>
-    </row>
-    <row r="648">
-      <c r="A648" s="1" t="n">
-        <v>646</v>
-      </c>
-      <c r="B648" t="n">
-        <v>354</v>
-      </c>
-      <c r="C648" t="n">
-        <v>354</v>
-      </c>
-      <c r="D648" t="n">
-        <v>354</v>
-      </c>
-      <c r="E648" t="n">
-        <v>354</v>
-      </c>
-      <c r="F648" t="n">
-        <v>300</v>
-      </c>
-      <c r="G648" t="n">
-        <v>-118412.58688993</v>
-      </c>
-      <c r="H648" t="n">
-        <v>1</v>
-      </c>
-      <c r="I648" t="n">
-        <v>354</v>
-      </c>
-      <c r="J648" t="n">
-        <v>354</v>
-      </c>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L648" t="n">
-        <v>1</v>
-      </c>
-      <c r="M648" t="inlineStr"/>
-    </row>
-    <row r="649">
-      <c r="A649" s="1" t="n">
-        <v>647</v>
-      </c>
-      <c r="B649" t="n">
-        <v>354</v>
-      </c>
-      <c r="C649" t="n">
-        <v>351</v>
-      </c>
-      <c r="D649" t="n">
-        <v>354</v>
-      </c>
-      <c r="E649" t="n">
-        <v>351</v>
-      </c>
-      <c r="F649" t="n">
-        <v>7213.7852</v>
-      </c>
-      <c r="G649" t="n">
-        <v>-125626.37208993</v>
-      </c>
-      <c r="H649" t="n">
-        <v>1</v>
-      </c>
-      <c r="I649" t="n">
-        <v>354</v>
-      </c>
-      <c r="J649" t="n">
-        <v>354</v>
-      </c>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L649" t="n">
-        <v>1</v>
-      </c>
-      <c r="M649" t="inlineStr"/>
-    </row>
-    <row r="650">
-      <c r="A650" s="1" t="n">
-        <v>648</v>
-      </c>
-      <c r="B650" t="n">
-        <v>351</v>
-      </c>
-      <c r="C650" t="n">
-        <v>351</v>
-      </c>
-      <c r="D650" t="n">
-        <v>351</v>
-      </c>
-      <c r="E650" t="n">
-        <v>351</v>
-      </c>
-      <c r="F650" t="n">
-        <v>4.6391</v>
-      </c>
-      <c r="G650" t="n">
-        <v>-125626.37208993</v>
-      </c>
-      <c r="H650" t="n">
-        <v>1</v>
-      </c>
-      <c r="I650" t="n">
-        <v>351</v>
-      </c>
-      <c r="J650" t="n">
-        <v>354</v>
-      </c>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L650" t="n">
-        <v>1</v>
-      </c>
-      <c r="M650" t="inlineStr"/>
-    </row>
-    <row r="651">
-      <c r="A651" s="1" t="n">
-        <v>649</v>
-      </c>
-      <c r="B651" t="n">
-        <v>351</v>
-      </c>
-      <c r="C651" t="n">
-        <v>350</v>
-      </c>
-      <c r="D651" t="n">
-        <v>351</v>
-      </c>
-      <c r="E651" t="n">
-        <v>350</v>
-      </c>
-      <c r="F651" t="n">
-        <v>3018.6428</v>
-      </c>
-      <c r="G651" t="n">
-        <v>-128645.01488993</v>
-      </c>
-      <c r="H651" t="n">
-        <v>1</v>
-      </c>
-      <c r="I651" t="n">
-        <v>351</v>
-      </c>
-      <c r="J651" t="n">
-        <v>354</v>
-      </c>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -21956,9 +21912,7 @@
       <c r="I652" t="n">
         <v>350</v>
       </c>
-      <c r="J652" t="n">
-        <v>354</v>
-      </c>
+      <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21997,9 +21951,7 @@
       <c r="I653" t="n">
         <v>350</v>
       </c>
-      <c r="J653" t="n">
-        <v>354</v>
-      </c>
+      <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22038,9 +21990,7 @@
       <c r="I654" t="n">
         <v>350</v>
       </c>
-      <c r="J654" t="n">
-        <v>354</v>
-      </c>
+      <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22079,9 +22029,7 @@
       <c r="I655" t="n">
         <v>347</v>
       </c>
-      <c r="J655" t="n">
-        <v>354</v>
-      </c>
+      <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22120,9 +22068,7 @@
       <c r="I656" t="n">
         <v>348</v>
       </c>
-      <c r="J656" t="n">
-        <v>354</v>
-      </c>
+      <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22161,9 +22107,7 @@
       <c r="I657" t="n">
         <v>348</v>
       </c>
-      <c r="J657" t="n">
-        <v>354</v>
-      </c>
+      <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22202,9 +22146,7 @@
       <c r="I658" t="n">
         <v>348</v>
       </c>
-      <c r="J658" t="n">
-        <v>354</v>
-      </c>
+      <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22243,9 +22185,7 @@
       <c r="I659" t="n">
         <v>354</v>
       </c>
-      <c r="J659" t="n">
-        <v>354</v>
-      </c>
+      <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22279,14 +22219,10 @@
         <v>-128299.56378993</v>
       </c>
       <c r="H660" t="n">
-        <v>1</v>
-      </c>
-      <c r="I660" t="n">
-        <v>352</v>
-      </c>
-      <c r="J660" t="n">
-        <v>354</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I660" t="inlineStr"/>
+      <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22320,14 +22256,10 @@
         <v>-134595.03128993</v>
       </c>
       <c r="H661" t="n">
-        <v>1</v>
-      </c>
-      <c r="I661" t="n">
-        <v>351</v>
-      </c>
-      <c r="J661" t="n">
-        <v>354</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I661" t="inlineStr"/>
+      <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22366,9 +22298,7 @@
       <c r="I662" t="n">
         <v>348</v>
       </c>
-      <c r="J662" t="n">
-        <v>354</v>
-      </c>
+      <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22402,14 +22332,10 @@
         <v>-140320.42078993</v>
       </c>
       <c r="H663" t="n">
-        <v>1</v>
-      </c>
-      <c r="I663" t="n">
-        <v>351</v>
-      </c>
-      <c r="J663" t="n">
-        <v>354</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I663" t="inlineStr"/>
+      <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22443,14 +22369,10 @@
         <v>-131256.17698993</v>
       </c>
       <c r="H664" t="n">
-        <v>1</v>
-      </c>
-      <c r="I664" t="n">
-        <v>349</v>
-      </c>
-      <c r="J664" t="n">
-        <v>354</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I664" t="inlineStr"/>
+      <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22484,14 +22406,10 @@
         <v>-131044.03858993</v>
       </c>
       <c r="H665" t="n">
-        <v>1</v>
-      </c>
-      <c r="I665" t="n">
-        <v>352</v>
-      </c>
-      <c r="J665" t="n">
-        <v>354</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I665" t="inlineStr"/>
+      <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22525,14 +22443,10 @@
         <v>-135262.57048993</v>
       </c>
       <c r="H666" t="n">
-        <v>1</v>
-      </c>
-      <c r="I666" t="n">
-        <v>354</v>
-      </c>
-      <c r="J666" t="n">
-        <v>354</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I666" t="inlineStr"/>
+      <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22566,14 +22480,10 @@
         <v>-134321.73488993</v>
       </c>
       <c r="H667" t="n">
-        <v>1</v>
-      </c>
-      <c r="I667" t="n">
-        <v>349</v>
-      </c>
-      <c r="J667" t="n">
-        <v>354</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I667" t="inlineStr"/>
+      <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22607,14 +22517,10 @@
         <v>-134329.73488993</v>
       </c>
       <c r="H668" t="n">
-        <v>1</v>
-      </c>
-      <c r="I668" t="n">
-        <v>353</v>
-      </c>
-      <c r="J668" t="n">
-        <v>354</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I668" t="inlineStr"/>
+      <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22648,14 +22554,10 @@
         <v>-126130.03578993</v>
       </c>
       <c r="H669" t="n">
-        <v>1</v>
-      </c>
-      <c r="I669" t="n">
-        <v>351</v>
-      </c>
-      <c r="J669" t="n">
-        <v>354</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I669" t="inlineStr"/>
+      <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22689,14 +22591,10 @@
         <v>-126130.03578993</v>
       </c>
       <c r="H670" t="n">
-        <v>1</v>
-      </c>
-      <c r="I670" t="n">
-        <v>353</v>
-      </c>
-      <c r="J670" t="n">
-        <v>354</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I670" t="inlineStr"/>
+      <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22730,14 +22628,10 @@
         <v>-126130.03578993</v>
       </c>
       <c r="H671" t="n">
-        <v>1</v>
-      </c>
-      <c r="I671" t="n">
-        <v>353</v>
-      </c>
-      <c r="J671" t="n">
-        <v>354</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I671" t="inlineStr"/>
+      <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22771,14 +22665,10 @@
         <v>-124701.23388993</v>
       </c>
       <c r="H672" t="n">
-        <v>1</v>
-      </c>
-      <c r="I672" t="n">
-        <v>353</v>
-      </c>
-      <c r="J672" t="n">
-        <v>354</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I672" t="inlineStr"/>
+      <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22812,14 +22702,10 @@
         <v>-118180.58338993</v>
       </c>
       <c r="H673" t="n">
-        <v>1</v>
-      </c>
-      <c r="I673" t="n">
-        <v>355</v>
-      </c>
-      <c r="J673" t="n">
-        <v>354</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I673" t="inlineStr"/>
+      <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22856,9 +22742,7 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="n">
-        <v>354</v>
-      </c>
+      <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22895,9 +22779,7 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="n">
-        <v>354</v>
-      </c>
+      <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22934,9 +22816,7 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="n">
-        <v>354</v>
-      </c>
+      <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22973,9 +22853,7 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="n">
-        <v>354</v>
-      </c>
+      <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23012,9 +22890,7 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="n">
-        <v>354</v>
-      </c>
+      <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23051,9 +22927,7 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="n">
-        <v>354</v>
-      </c>
+      <c r="J679" t="inlineStr"/>
       <c r="K679" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23090,9 +22964,7 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="n">
-        <v>354</v>
-      </c>
+      <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23129,9 +23001,7 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="n">
-        <v>354</v>
-      </c>
+      <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23168,9 +23038,7 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="n">
-        <v>354</v>
-      </c>
+      <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23207,9 +23075,7 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="n">
-        <v>354</v>
-      </c>
+      <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23246,9 +23112,7 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="n">
-        <v>354</v>
-      </c>
+      <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23285,9 +23149,7 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="n">
-        <v>354</v>
-      </c>
+      <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23324,9 +23186,7 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="n">
-        <v>354</v>
-      </c>
+      <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23363,9 +23223,7 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="n">
-        <v>354</v>
-      </c>
+      <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23402,9 +23260,7 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="n">
-        <v>354</v>
-      </c>
+      <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23441,9 +23297,7 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="n">
-        <v>354</v>
-      </c>
+      <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23480,9 +23334,7 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="n">
-        <v>354</v>
-      </c>
+      <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23519,9 +23371,7 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="n">
-        <v>354</v>
-      </c>
+      <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23558,9 +23408,7 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="n">
-        <v>354</v>
-      </c>
+      <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23597,9 +23445,7 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="n">
-        <v>354</v>
-      </c>
+      <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23636,9 +23482,7 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="n">
-        <v>354</v>
-      </c>
+      <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23675,9 +23519,7 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="n">
-        <v>354</v>
-      </c>
+      <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23714,9 +23556,7 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="n">
-        <v>354</v>
-      </c>
+      <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23753,9 +23593,7 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="n">
-        <v>354</v>
-      </c>
+      <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23792,9 +23630,7 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="n">
-        <v>354</v>
-      </c>
+      <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23831,9 +23667,7 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="n">
-        <v>354</v>
-      </c>
+      <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23870,9 +23704,7 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="n">
-        <v>354</v>
-      </c>
+      <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23909,9 +23741,7 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="n">
-        <v>354</v>
-      </c>
+      <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23948,9 +23778,7 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="n">
-        <v>354</v>
-      </c>
+      <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23987,9 +23815,7 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="n">
-        <v>354</v>
-      </c>
+      <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24026,9 +23852,7 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="n">
-        <v>354</v>
-      </c>
+      <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24065,9 +23889,7 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="n">
-        <v>354</v>
-      </c>
+      <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24104,9 +23926,7 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="n">
-        <v>354</v>
-      </c>
+      <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24143,9 +23963,7 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="n">
-        <v>354</v>
-      </c>
+      <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24182,9 +24000,7 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="n">
-        <v>354</v>
-      </c>
+      <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24221,9 +24037,7 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="n">
-        <v>354</v>
-      </c>
+      <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24260,9 +24074,7 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="n">
-        <v>354</v>
-      </c>
+      <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24299,9 +24111,7 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="n">
-        <v>354</v>
-      </c>
+      <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24338,9 +24148,7 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="n">
-        <v>354</v>
-      </c>
+      <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24377,9 +24185,7 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="n">
-        <v>354</v>
-      </c>
+      <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24416,9 +24222,7 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="n">
-        <v>354</v>
-      </c>
+      <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24455,9 +24259,7 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="n">
-        <v>354</v>
-      </c>
+      <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24494,9 +24296,7 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="n">
-        <v>354</v>
-      </c>
+      <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24508,6 +24308,6 @@
       <c r="M716" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest MTL.xlsx
+++ b/BackTest/2019-10-26 BackTest MTL.xlsx
@@ -451,7 +451,7 @@
         <v>37574.95681911999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>41689.57261911999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>33634.41341911999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>33680.85171911999</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>29747.39631911999</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>29748.63231912</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>29153.86501912</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>14007.01111912</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-15534.72038088001</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-15534.72038088001</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-2261.090480880005</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-2261.090480880005</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-2261.090480880005</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-2262.090480880005</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-10571.26618088</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-10570.01618088</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>43155.98253494</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>42497.90253494</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>55177.09706125</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>55177.09706125</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>64219.03326124999</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>64219.03326124999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>49982.17796125</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>35963.09496125</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>37392.61906125</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>36592.44396125</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>37144.38286125</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>37144.38286125</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>37144.38286125</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>27884.46506125</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>29783.39045887</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>31401.85825887</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>47364.60975887</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>47364.60975887</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>47364.35375887</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>47364.35375887</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>47364.35375887</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>47226.78875887</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>44611.21325887</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>44611.21325887</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>44991.06515887</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>36370.40805887</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>35853.53205887001</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>29122.07915887</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>41170.62135887</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>71537.90122552999</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>74239.25962552999</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>32553.97312552998</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>32555.07312552998</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>31360.33022552998</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>31360.33022552998</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>31360.33022552998</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>34508.22077659997</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>32024.81987659997</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>32024.81987659997</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>31150.10837659997</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>31932.79307659997</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>17513.94827659997</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>18423.20037659997</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>18423.20037659997</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>18166.70927659997</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>28105.71152523997</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>28105.71152523997</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>27314.60302523998</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>15421.08062523998</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-34504.91534093002</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-34504.91534093002</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-34504.91534093002</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-19389.10606832002</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-20989.14556832002</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-24130.62516832002</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-22482.22196832002</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-23482.22196832002</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-22480.63316832002</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-22529.19686832001</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-22528.08996832002</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-22528.08996832002</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-22526.16576832001</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-22577.12976832001</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-13687.12976832001</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-13012.94726832001</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-13772.43016832001</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-13772.43016832001</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-14336.37906832001</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-14335.02076832001</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>-21967.25656832002</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>-21958.37246832002</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-21929.52216832002</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>-22148.87566832002</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>-22307.58466832002</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-22307.58466832002</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-25740.85006832002</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-25740.85006832002</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>-25073.72556832002</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-30287.56916832002</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-30161.56916832002</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-33937.00326832002</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>-29518.88726832002</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>-30228.88726832002</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>-33672.70706832001</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-33517.70706832001</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-36428.37376832002</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>-39405.79346832001</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -21868,290 +21868,270 @@
         <v>-128645.01488993</v>
       </c>
       <c r="H651" t="n">
-        <v>1</v>
-      </c>
-      <c r="I651" t="n">
-        <v>351</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr">
+      <c r="K651" t="inlineStr"/>
+      <c r="L651" t="n">
+        <v>1</v>
+      </c>
+      <c r="M651" t="inlineStr"/>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="n">
+        <v>650</v>
+      </c>
+      <c r="B652" t="n">
+        <v>350</v>
+      </c>
+      <c r="C652" t="n">
+        <v>350</v>
+      </c>
+      <c r="D652" t="n">
+        <v>350</v>
+      </c>
+      <c r="E652" t="n">
+        <v>350</v>
+      </c>
+      <c r="F652" t="n">
+        <v>707.38</v>
+      </c>
+      <c r="G652" t="n">
+        <v>-128645.01488993</v>
+      </c>
+      <c r="H652" t="n">
+        <v>0</v>
+      </c>
+      <c r="I652" t="inlineStr"/>
+      <c r="J652" t="inlineStr"/>
+      <c r="K652" t="inlineStr"/>
+      <c r="L652" t="n">
+        <v>1</v>
+      </c>
+      <c r="M652" t="inlineStr"/>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="n">
+        <v>651</v>
+      </c>
+      <c r="B653" t="n">
+        <v>350</v>
+      </c>
+      <c r="C653" t="n">
+        <v>350</v>
+      </c>
+      <c r="D653" t="n">
+        <v>350</v>
+      </c>
+      <c r="E653" t="n">
+        <v>350</v>
+      </c>
+      <c r="F653" t="n">
+        <v>3282</v>
+      </c>
+      <c r="G653" t="n">
+        <v>-128645.01488993</v>
+      </c>
+      <c r="H653" t="n">
+        <v>0</v>
+      </c>
+      <c r="I653" t="inlineStr"/>
+      <c r="J653" t="inlineStr"/>
+      <c r="K653" t="inlineStr"/>
+      <c r="L653" t="n">
+        <v>1</v>
+      </c>
+      <c r="M653" t="inlineStr"/>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="n">
+        <v>652</v>
+      </c>
+      <c r="B654" t="n">
+        <v>350</v>
+      </c>
+      <c r="C654" t="n">
+        <v>347</v>
+      </c>
+      <c r="D654" t="n">
+        <v>350</v>
+      </c>
+      <c r="E654" t="n">
+        <v>347</v>
+      </c>
+      <c r="F654" t="n">
+        <v>7414.1018</v>
+      </c>
+      <c r="G654" t="n">
+        <v>-136059.11668993</v>
+      </c>
+      <c r="H654" t="n">
+        <v>0</v>
+      </c>
+      <c r="I654" t="inlineStr"/>
+      <c r="J654" t="inlineStr"/>
+      <c r="K654" t="inlineStr"/>
+      <c r="L654" t="n">
+        <v>1</v>
+      </c>
+      <c r="M654" t="inlineStr"/>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="n">
+        <v>653</v>
+      </c>
+      <c r="B655" t="n">
+        <v>348</v>
+      </c>
+      <c r="C655" t="n">
+        <v>348</v>
+      </c>
+      <c r="D655" t="n">
+        <v>348</v>
+      </c>
+      <c r="E655" t="n">
+        <v>348</v>
+      </c>
+      <c r="F655" t="n">
+        <v>1041.0338</v>
+      </c>
+      <c r="G655" t="n">
+        <v>-135018.08288993</v>
+      </c>
+      <c r="H655" t="n">
+        <v>1</v>
+      </c>
+      <c r="I655" t="n">
+        <v>347</v>
+      </c>
+      <c r="J655" t="n">
+        <v>347</v>
+      </c>
+      <c r="K655" t="inlineStr"/>
+      <c r="L655" t="n">
+        <v>1</v>
+      </c>
+      <c r="M655" t="inlineStr"/>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="n">
+        <v>654</v>
+      </c>
+      <c r="B656" t="n">
+        <v>348</v>
+      </c>
+      <c r="C656" t="n">
+        <v>348</v>
+      </c>
+      <c r="D656" t="n">
+        <v>348</v>
+      </c>
+      <c r="E656" t="n">
+        <v>348</v>
+      </c>
+      <c r="F656" t="n">
+        <v>9882.237999999999</v>
+      </c>
+      <c r="G656" t="n">
+        <v>-135018.08288993</v>
+      </c>
+      <c r="H656" t="n">
+        <v>1</v>
+      </c>
+      <c r="I656" t="n">
+        <v>348</v>
+      </c>
+      <c r="J656" t="n">
+        <v>347</v>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L656" t="n">
+        <v>1</v>
+      </c>
+      <c r="M656" t="inlineStr"/>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="n">
+        <v>655</v>
+      </c>
+      <c r="B657" t="n">
+        <v>348</v>
+      </c>
+      <c r="C657" t="n">
+        <v>348</v>
+      </c>
+      <c r="D657" t="n">
+        <v>348</v>
+      </c>
+      <c r="E657" t="n">
+        <v>348</v>
+      </c>
+      <c r="F657" t="n">
+        <v>10117.762</v>
+      </c>
+      <c r="G657" t="n">
+        <v>-135018.08288993</v>
+      </c>
+      <c r="H657" t="n">
+        <v>1</v>
+      </c>
+      <c r="I657" t="n">
+        <v>348</v>
+      </c>
+      <c r="J657" t="n">
+        <v>347</v>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L657" t="n">
+        <v>1</v>
+      </c>
+      <c r="M657" t="inlineStr"/>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="n">
+        <v>656</v>
+      </c>
+      <c r="B658" t="n">
+        <v>348</v>
+      </c>
+      <c r="C658" t="n">
+        <v>354</v>
+      </c>
+      <c r="D658" t="n">
+        <v>354</v>
+      </c>
+      <c r="E658" t="n">
+        <v>348</v>
+      </c>
+      <c r="F658" t="n">
+        <v>7521.5</v>
+      </c>
+      <c r="G658" t="n">
+        <v>-127496.58288993</v>
+      </c>
+      <c r="H658" t="n">
+        <v>1</v>
+      </c>
+      <c r="I658" t="n">
+        <v>348</v>
+      </c>
+      <c r="J658" t="n">
+        <v>347</v>
+      </c>
+      <c r="K658" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L651" t="n">
-        <v>1</v>
-      </c>
-      <c r="M651" t="inlineStr"/>
-    </row>
-    <row r="652">
-      <c r="A652" s="1" t="n">
-        <v>650</v>
-      </c>
-      <c r="B652" t="n">
-        <v>350</v>
-      </c>
-      <c r="C652" t="n">
-        <v>350</v>
-      </c>
-      <c r="D652" t="n">
-        <v>350</v>
-      </c>
-      <c r="E652" t="n">
-        <v>350</v>
-      </c>
-      <c r="F652" t="n">
-        <v>707.38</v>
-      </c>
-      <c r="G652" t="n">
-        <v>-128645.01488993</v>
-      </c>
-      <c r="H652" t="n">
-        <v>1</v>
-      </c>
-      <c r="I652" t="n">
-        <v>350</v>
-      </c>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L652" t="n">
-        <v>1</v>
-      </c>
-      <c r="M652" t="inlineStr"/>
-    </row>
-    <row r="653">
-      <c r="A653" s="1" t="n">
-        <v>651</v>
-      </c>
-      <c r="B653" t="n">
-        <v>350</v>
-      </c>
-      <c r="C653" t="n">
-        <v>350</v>
-      </c>
-      <c r="D653" t="n">
-        <v>350</v>
-      </c>
-      <c r="E653" t="n">
-        <v>350</v>
-      </c>
-      <c r="F653" t="n">
-        <v>3282</v>
-      </c>
-      <c r="G653" t="n">
-        <v>-128645.01488993</v>
-      </c>
-      <c r="H653" t="n">
-        <v>1</v>
-      </c>
-      <c r="I653" t="n">
-        <v>350</v>
-      </c>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L653" t="n">
-        <v>1</v>
-      </c>
-      <c r="M653" t="inlineStr"/>
-    </row>
-    <row r="654">
-      <c r="A654" s="1" t="n">
-        <v>652</v>
-      </c>
-      <c r="B654" t="n">
-        <v>350</v>
-      </c>
-      <c r="C654" t="n">
-        <v>347</v>
-      </c>
-      <c r="D654" t="n">
-        <v>350</v>
-      </c>
-      <c r="E654" t="n">
-        <v>347</v>
-      </c>
-      <c r="F654" t="n">
-        <v>7414.1018</v>
-      </c>
-      <c r="G654" t="n">
-        <v>-136059.11668993</v>
-      </c>
-      <c r="H654" t="n">
-        <v>1</v>
-      </c>
-      <c r="I654" t="n">
-        <v>350</v>
-      </c>
-      <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L654" t="n">
-        <v>1</v>
-      </c>
-      <c r="M654" t="inlineStr"/>
-    </row>
-    <row r="655">
-      <c r="A655" s="1" t="n">
-        <v>653</v>
-      </c>
-      <c r="B655" t="n">
-        <v>348</v>
-      </c>
-      <c r="C655" t="n">
-        <v>348</v>
-      </c>
-      <c r="D655" t="n">
-        <v>348</v>
-      </c>
-      <c r="E655" t="n">
-        <v>348</v>
-      </c>
-      <c r="F655" t="n">
-        <v>1041.0338</v>
-      </c>
-      <c r="G655" t="n">
-        <v>-135018.08288993</v>
-      </c>
-      <c r="H655" t="n">
-        <v>1</v>
-      </c>
-      <c r="I655" t="n">
-        <v>347</v>
-      </c>
-      <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L655" t="n">
-        <v>1</v>
-      </c>
-      <c r="M655" t="inlineStr"/>
-    </row>
-    <row r="656">
-      <c r="A656" s="1" t="n">
-        <v>654</v>
-      </c>
-      <c r="B656" t="n">
-        <v>348</v>
-      </c>
-      <c r="C656" t="n">
-        <v>348</v>
-      </c>
-      <c r="D656" t="n">
-        <v>348</v>
-      </c>
-      <c r="E656" t="n">
-        <v>348</v>
-      </c>
-      <c r="F656" t="n">
-        <v>9882.237999999999</v>
-      </c>
-      <c r="G656" t="n">
-        <v>-135018.08288993</v>
-      </c>
-      <c r="H656" t="n">
-        <v>1</v>
-      </c>
-      <c r="I656" t="n">
-        <v>348</v>
-      </c>
-      <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L656" t="n">
-        <v>1</v>
-      </c>
-      <c r="M656" t="inlineStr"/>
-    </row>
-    <row r="657">
-      <c r="A657" s="1" t="n">
-        <v>655</v>
-      </c>
-      <c r="B657" t="n">
-        <v>348</v>
-      </c>
-      <c r="C657" t="n">
-        <v>348</v>
-      </c>
-      <c r="D657" t="n">
-        <v>348</v>
-      </c>
-      <c r="E657" t="n">
-        <v>348</v>
-      </c>
-      <c r="F657" t="n">
-        <v>10117.762</v>
-      </c>
-      <c r="G657" t="n">
-        <v>-135018.08288993</v>
-      </c>
-      <c r="H657" t="n">
-        <v>1</v>
-      </c>
-      <c r="I657" t="n">
-        <v>348</v>
-      </c>
-      <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L657" t="n">
-        <v>1</v>
-      </c>
-      <c r="M657" t="inlineStr"/>
-    </row>
-    <row r="658">
-      <c r="A658" s="1" t="n">
-        <v>656</v>
-      </c>
-      <c r="B658" t="n">
-        <v>348</v>
-      </c>
-      <c r="C658" t="n">
-        <v>354</v>
-      </c>
-      <c r="D658" t="n">
-        <v>354</v>
-      </c>
-      <c r="E658" t="n">
-        <v>348</v>
-      </c>
-      <c r="F658" t="n">
-        <v>7521.5</v>
-      </c>
-      <c r="G658" t="n">
-        <v>-127496.58288993</v>
-      </c>
-      <c r="H658" t="n">
-        <v>1</v>
-      </c>
-      <c r="I658" t="n">
-        <v>348</v>
-      </c>
-      <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22185,7 +22165,9 @@
       <c r="I659" t="n">
         <v>354</v>
       </c>
-      <c r="J659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>347</v>
+      </c>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22219,10 +22201,14 @@
         <v>-128299.56378993</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
-      </c>
-      <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I660" t="n">
+        <v>352</v>
+      </c>
+      <c r="J660" t="n">
+        <v>347</v>
+      </c>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22256,10 +22242,14 @@
         <v>-134595.03128993</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
-      </c>
-      <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I661" t="n">
+        <v>351</v>
+      </c>
+      <c r="J661" t="n">
+        <v>347</v>
+      </c>
       <c r="K661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22298,7 +22288,9 @@
       <c r="I662" t="n">
         <v>348</v>
       </c>
-      <c r="J662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>347</v>
+      </c>
       <c r="K662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22332,10 +22324,14 @@
         <v>-140320.42078993</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
-      </c>
-      <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I663" t="n">
+        <v>351</v>
+      </c>
+      <c r="J663" t="n">
+        <v>347</v>
+      </c>
       <c r="K663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22369,10 +22365,14 @@
         <v>-131256.17698993</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
-      </c>
-      <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I664" t="n">
+        <v>349</v>
+      </c>
+      <c r="J664" t="n">
+        <v>347</v>
+      </c>
       <c r="K664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22406,10 +22406,14 @@
         <v>-131044.03858993</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
-      </c>
-      <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I665" t="n">
+        <v>352</v>
+      </c>
+      <c r="J665" t="n">
+        <v>347</v>
+      </c>
       <c r="K665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22446,7 +22450,9 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>347</v>
+      </c>
       <c r="K666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22480,10 +22486,14 @@
         <v>-134321.73488993</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
-      </c>
-      <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I667" t="n">
+        <v>349</v>
+      </c>
+      <c r="J667" t="n">
+        <v>347</v>
+      </c>
       <c r="K667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22517,10 +22527,14 @@
         <v>-134329.73488993</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
-      </c>
-      <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I668" t="n">
+        <v>353</v>
+      </c>
+      <c r="J668" t="n">
+        <v>347</v>
+      </c>
       <c r="K668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22554,10 +22568,14 @@
         <v>-126130.03578993</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
-      </c>
-      <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I669" t="n">
+        <v>351</v>
+      </c>
+      <c r="J669" t="n">
+        <v>347</v>
+      </c>
       <c r="K669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22591,10 +22609,14 @@
         <v>-126130.03578993</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
-      </c>
-      <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I670" t="n">
+        <v>353</v>
+      </c>
+      <c r="J670" t="n">
+        <v>347</v>
+      </c>
       <c r="K670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22628,10 +22650,14 @@
         <v>-126130.03578993</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
-      </c>
-      <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I671" t="n">
+        <v>353</v>
+      </c>
+      <c r="J671" t="n">
+        <v>347</v>
+      </c>
       <c r="K671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22665,10 +22691,14 @@
         <v>-124701.23388993</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
-      </c>
-      <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I672" t="n">
+        <v>353</v>
+      </c>
+      <c r="J672" t="n">
+        <v>347</v>
+      </c>
       <c r="K672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22705,7 +22735,9 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>347</v>
+      </c>
       <c r="K673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22742,7 +22774,9 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>347</v>
+      </c>
       <c r="K674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22779,7 +22813,9 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>347</v>
+      </c>
       <c r="K675" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22816,7 +22852,9 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>347</v>
+      </c>
       <c r="K676" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22853,7 +22891,9 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>347</v>
+      </c>
       <c r="K677" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22890,7 +22930,9 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>347</v>
+      </c>
       <c r="K678" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22927,7 +22969,9 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>347</v>
+      </c>
       <c r="K679" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22964,7 +23008,9 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>347</v>
+      </c>
       <c r="K680" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23001,7 +23047,9 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>347</v>
+      </c>
       <c r="K681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23038,7 +23086,9 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>347</v>
+      </c>
       <c r="K682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23075,7 +23125,9 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>347</v>
+      </c>
       <c r="K683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23112,7 +23164,9 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>347</v>
+      </c>
       <c r="K684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23149,7 +23203,9 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>347</v>
+      </c>
       <c r="K685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23183,10 +23239,14 @@
         <v>-109546.26837094</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
-      </c>
-      <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I686" t="n">
+        <v>356</v>
+      </c>
+      <c r="J686" t="n">
+        <v>347</v>
+      </c>
       <c r="K686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23220,10 +23280,14 @@
         <v>-106754.54727094</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
-      </c>
-      <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I687" t="n">
+        <v>354</v>
+      </c>
+      <c r="J687" t="n">
+        <v>347</v>
+      </c>
       <c r="K687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23257,10 +23321,14 @@
         <v>-107413.40087094</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
-      </c>
-      <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I688" t="n">
+        <v>355</v>
+      </c>
+      <c r="J688" t="n">
+        <v>347</v>
+      </c>
       <c r="K688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23294,10 +23362,14 @@
         <v>-110079.40087094</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
-      </c>
-      <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I689" t="n">
+        <v>354</v>
+      </c>
+      <c r="J689" t="n">
+        <v>347</v>
+      </c>
       <c r="K689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23331,10 +23403,14 @@
         <v>-110079.40087094</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
-      </c>
-      <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I690" t="n">
+        <v>353</v>
+      </c>
+      <c r="J690" t="n">
+        <v>347</v>
+      </c>
       <c r="K690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23368,10 +23444,14 @@
         <v>-109681.04567094</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
-      </c>
-      <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I691" t="n">
+        <v>353</v>
+      </c>
+      <c r="J691" t="n">
+        <v>347</v>
+      </c>
       <c r="K691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23405,10 +23485,14 @@
         <v>-109681.04567094</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
-      </c>
-      <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I692" t="n">
+        <v>354</v>
+      </c>
+      <c r="J692" t="n">
+        <v>347</v>
+      </c>
       <c r="K692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23442,10 +23526,14 @@
         <v>-109681.04567094</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
-      </c>
-      <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I693" t="n">
+        <v>354</v>
+      </c>
+      <c r="J693" t="n">
+        <v>347</v>
+      </c>
       <c r="K693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23479,10 +23567,14 @@
         <v>-109681.04567094</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
-      </c>
-      <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I694" t="n">
+        <v>354</v>
+      </c>
+      <c r="J694" t="n">
+        <v>347</v>
+      </c>
       <c r="K694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23516,10 +23608,14 @@
         <v>-109681.04567094</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
-      </c>
-      <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I695" t="n">
+        <v>354</v>
+      </c>
+      <c r="J695" t="n">
+        <v>347</v>
+      </c>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23553,10 +23649,14 @@
         <v>-109681.04567094</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
-      </c>
-      <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I696" t="n">
+        <v>354</v>
+      </c>
+      <c r="J696" t="n">
+        <v>347</v>
+      </c>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23590,10 +23690,14 @@
         <v>-109681.04567094</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
-      </c>
-      <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I697" t="n">
+        <v>354</v>
+      </c>
+      <c r="J697" t="n">
+        <v>347</v>
+      </c>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23627,10 +23731,14 @@
         <v>-108771.04567094</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
-      </c>
-      <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I698" t="n">
+        <v>354</v>
+      </c>
+      <c r="J698" t="n">
+        <v>347</v>
+      </c>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23664,10 +23772,14 @@
         <v>-108771.04567094</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
-      </c>
-      <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I699" t="n">
+        <v>356</v>
+      </c>
+      <c r="J699" t="n">
+        <v>347</v>
+      </c>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23701,10 +23813,14 @@
         <v>-107971.04567094</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
-      </c>
-      <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I700" t="n">
+        <v>356</v>
+      </c>
+      <c r="J700" t="n">
+        <v>347</v>
+      </c>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23738,10 +23854,14 @@
         <v>-121350.17257094</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
-      </c>
-      <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I701" t="n">
+        <v>358</v>
+      </c>
+      <c r="J701" t="n">
+        <v>347</v>
+      </c>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23775,10 +23895,14 @@
         <v>-122407.11417094</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
-      </c>
-      <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I702" t="n">
+        <v>357</v>
+      </c>
+      <c r="J702" t="n">
+        <v>347</v>
+      </c>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23812,10 +23936,14 @@
         <v>-120295.80457094</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
-      </c>
-      <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I703" t="n">
+        <v>355</v>
+      </c>
+      <c r="J703" t="n">
+        <v>347</v>
+      </c>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23849,10 +23977,14 @@
         <v>-120295.80457094</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
-      </c>
-      <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I704" t="n">
+        <v>356</v>
+      </c>
+      <c r="J704" t="n">
+        <v>347</v>
+      </c>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23886,10 +24018,14 @@
         <v>-118912.37657094</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
-      </c>
-      <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I705" t="n">
+        <v>356</v>
+      </c>
+      <c r="J705" t="n">
+        <v>347</v>
+      </c>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23923,10 +24059,14 @@
         <v>-118912.37657094</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
-      </c>
-      <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I706" t="n">
+        <v>357</v>
+      </c>
+      <c r="J706" t="n">
+        <v>347</v>
+      </c>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23960,10 +24100,14 @@
         <v>-118912.37657094</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
-      </c>
-      <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I707" t="n">
+        <v>357</v>
+      </c>
+      <c r="J707" t="n">
+        <v>347</v>
+      </c>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23997,10 +24141,14 @@
         <v>-117593.13006953</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
-      </c>
-      <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I708" t="n">
+        <v>357</v>
+      </c>
+      <c r="J708" t="n">
+        <v>347</v>
+      </c>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24034,10 +24182,14 @@
         <v>-116705.11896953</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
-      </c>
-      <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I709" t="n">
+        <v>358</v>
+      </c>
+      <c r="J709" t="n">
+        <v>347</v>
+      </c>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24071,10 +24223,14 @@
         <v>-116705.11896953</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
-      </c>
-      <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I710" t="n">
+        <v>359</v>
+      </c>
+      <c r="J710" t="n">
+        <v>347</v>
+      </c>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24108,10 +24264,14 @@
         <v>-90882.34276952999</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
-      </c>
-      <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I711" t="n">
+        <v>359</v>
+      </c>
+      <c r="J711" t="n">
+        <v>347</v>
+      </c>
       <c r="K711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24148,7 +24308,9 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="inlineStr"/>
+      <c r="J712" t="n">
+        <v>347</v>
+      </c>
       <c r="K712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24185,7 +24347,9 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="inlineStr"/>
+      <c r="J713" t="n">
+        <v>347</v>
+      </c>
       <c r="K713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24222,7 +24386,9 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="inlineStr"/>
+      <c r="J714" t="n">
+        <v>347</v>
+      </c>
       <c r="K714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24259,7 +24425,9 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="inlineStr"/>
+      <c r="J715" t="n">
+        <v>347</v>
+      </c>
       <c r="K715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24296,7 +24464,9 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="inlineStr"/>
+      <c r="J716" t="n">
+        <v>347</v>
+      </c>
       <c r="K716" t="inlineStr">
         <is>
           <t>매도 대기</t>
